--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-04-04).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-ETP-OP-04-04).xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="64">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,6 +283,10 @@
   </si>
   <si>
     <t>ETP 투자지표 산출 시뮬레이터(지수연동)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,9 +543,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -578,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1077,7 +1077,7 @@
   <dimension ref="A2:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1103,7 +1103,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1112,14 +1112,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18" t="s">
@@ -1129,8 +1129,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="14">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1138,14 +1138,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="12" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="11" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="19"/>
@@ -1153,8 +1153,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="14">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1163,13 +1163,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="20"/>
@@ -1177,8 +1177,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="14">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -1203,7 +1203,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1260,308 +1260,316 @@
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="H11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="D12" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -1600,7 +1608,7 @@
   <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1619,14 +1627,14 @@
         <v>22</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1635,14 +1643,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18" t="s">
@@ -1652,8 +1660,8 @@
         <v>18</v>
       </c>
       <c r="I3" s="22"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
+      <c r="J3" s="14">
+        <v>43822</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1661,14 +1669,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="17"/>
       <c r="G4" s="19"/>
@@ -1676,8 +1684,8 @@
         <v>19</v>
       </c>
       <c r="I4" s="22"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
+      <c r="J4" s="14">
+        <v>43825</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,13 +1694,13 @@
       </c>
       <c r="B5" s="22"/>
       <c r="C5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
         <v>56</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>57</v>
       </c>
       <c r="F5" s="17"/>
       <c r="G5" s="20"/>
@@ -1700,8 +1708,8 @@
         <v>20</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
+      <c r="J5" s="14">
+        <v>43829</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.3">
@@ -1710,7 +1718,7 @@
       </c>
       <c r="B6" s="22"/>
       <c r="C6" s="26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
@@ -1726,7 +1734,7 @@
       </c>
       <c r="B7" s="22"/>
       <c r="C7" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -1739,179 +1747,223 @@
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
       <c r="H9" s="34"/>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
       <c r="H10" s="17"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="I10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="30"/>
       <c r="B11" s="31"/>
       <c r="C11" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
       <c r="H11" s="17"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="I11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="31"/>
       <c r="C12" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="27"/>
       <c r="H12" s="17"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="I12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="31"/>
       <c r="C13" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="27"/>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
       <c r="H13" s="17"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="I13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="31"/>
       <c r="C14" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
       <c r="G14" s="27"/>
       <c r="H14" s="17"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="I14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="31"/>
       <c r="C15" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="27"/>
       <c r="H15" s="17"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="I15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="31"/>
       <c r="C16" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
       <c r="G16" s="27"/>
       <c r="H16" s="17"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="I16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="31"/>
       <c r="C17" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
       <c r="H17" s="17"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="31"/>
       <c r="C18" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
       <c r="H18" s="17"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="I18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="27"/>
       <c r="H19" s="17"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="I19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="32"/>
       <c r="B20" s="33"/>
       <c r="C20" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="17"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="I20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1971,8 +2023,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>44</v>
+      <c r="A1" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1987,7 +2039,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1996,14 +2048,14 @@
         <v>11</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="7" t="s">
+      <c r="C3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F3" s="27"/>
       <c r="G3" s="27"/>
@@ -2016,14 +2068,14 @@
         <v>12</v>
       </c>
       <c r="B4" s="22"/>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="27"/>
@@ -2033,7 +2085,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="27"/>
       <c r="C6" s="27"/>
@@ -2335,7 +2387,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
